--- a/Data SisTaBang/m_skpd.xlsx
+++ b/Data SisTaBang/m_skpd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X.UserZ\Documents\GitHub\MyDocs\Data SisTaBang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37A4E50-81B7-403A-AF48-C573D120AD75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFECDDE-7100-4FDF-9647-1C0D0CD20AA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10D17828-8973-4EC4-9169-DE9CC9CA1D84}"/>
   </bookViews>
@@ -16,25 +16,19 @@
     <sheet name="m_skpd" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">m_skpd!$A$1:$B$457</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">m_skpd!$A$1:$B$428</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="1001">
   <si>
     <t>Nama SKPD</t>
   </si>
@@ -2877,48 +2871,6 @@
     <t>KOSONG</t>
   </si>
   <si>
-    <t>DINAS PU</t>
-  </si>
-  <si>
-    <t>DISHUBKOMINFO</t>
-  </si>
-  <si>
-    <t>DINAS PENDIDIKAN</t>
-  </si>
-  <si>
-    <t>DISPORPARABUD</t>
-  </si>
-  <si>
-    <t>BADAN PEMBERDAYAAN MASYARAKAT, PEREMPUAN DAN KELUARGA BERENCANA</t>
-  </si>
-  <si>
-    <t>DINAS PERINDUSTRIAN, PERDAGANGAN, DAN KOPERASI</t>
-  </si>
-  <si>
-    <t>BADAN PELAYANAN TERPADU DAN PENANAMAN MODAL</t>
-  </si>
-  <si>
-    <t>DINAS PENDAPATAN DAN KEUANGAN DAERAH</t>
-  </si>
-  <si>
-    <t>INSPEKTORAT KOTA</t>
-  </si>
-  <si>
-    <t>BAPPEDA</t>
-  </si>
-  <si>
-    <t>KANTOR LINGKUNGAN HIDUP</t>
-  </si>
-  <si>
-    <t>KANTOR KESATUAN BANGSA, POLITIK, DAN PERLINDUNGAN MASYARAKAT</t>
-  </si>
-  <si>
-    <t>BADAN KEPEGAWAIAN DAERAH</t>
-  </si>
-  <si>
-    <t>KANTOR PERPUSTAKAAN DAN ARSIP DAERAH</t>
-  </si>
-  <si>
     <t>KEPALA DAERAH DAN WAKIL KEPALA DAERAH</t>
   </si>
   <si>
@@ -3049,93 +3001,6 @@
   </si>
   <si>
     <t>3.5.1.1.1</t>
-  </si>
-  <si>
-    <t>4.1.1.2.1</t>
-  </si>
-  <si>
-    <t>4.1.1.2.2</t>
-  </si>
-  <si>
-    <t>4.1.1.2.3</t>
-  </si>
-  <si>
-    <t>4.1.1.2.4</t>
-  </si>
-  <si>
-    <t>4.1.1.2.5</t>
-  </si>
-  <si>
-    <t>4.1.1.2.6</t>
-  </si>
-  <si>
-    <t>4.1.1.2.7</t>
-  </si>
-  <si>
-    <t>4.1.1.2.8</t>
-  </si>
-  <si>
-    <t>4.1.1.2.9</t>
-  </si>
-  <si>
-    <t>4.1.1.2.10</t>
-  </si>
-  <si>
-    <t>4.1.1.2.11</t>
-  </si>
-  <si>
-    <t>4.1.1.2.12</t>
-  </si>
-  <si>
-    <t>4.1.1.2.13</t>
-  </si>
-  <si>
-    <t>4.1.1.2.14</t>
-  </si>
-  <si>
-    <t>4.1.1.2.15</t>
-  </si>
-  <si>
-    <t>4.1.1.2.16</t>
-  </si>
-  <si>
-    <t>4.1.1.2.17</t>
-  </si>
-  <si>
-    <t>4.1.1.2.18</t>
-  </si>
-  <si>
-    <t>4.1.1.2.19</t>
-  </si>
-  <si>
-    <t>4.1.1.2.20</t>
-  </si>
-  <si>
-    <t>4.1.1.2.21</t>
-  </si>
-  <si>
-    <t>4.1.1.2.22</t>
-  </si>
-  <si>
-    <t>4.1.1.2.23</t>
-  </si>
-  <si>
-    <t>4.1.1.2.24</t>
-  </si>
-  <si>
-    <t>4.1.1.2.25</t>
-  </si>
-  <si>
-    <t>4.1.1.2.26</t>
-  </si>
-  <si>
-    <t>4.1.1.2.27</t>
-  </si>
-  <si>
-    <t>4.1.1.2.28</t>
-  </si>
-  <si>
-    <t>4.1.1.2.29</t>
   </si>
   <si>
     <t>4.1.2.1.1</t>
@@ -3567,7 +3432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D730079B-9625-41B8-BE04-FEE28171AFE9}">
-  <dimension ref="A1:B533"/>
+  <dimension ref="A1:B504"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3667,7 +3532,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>968</v>
+        <v>954</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>910</v>
@@ -3747,7 +3612,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>969</v>
+        <v>955</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>911</v>
@@ -3827,7 +3692,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>970</v>
+        <v>956</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>912</v>
@@ -3907,7 +3772,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>971</v>
+        <v>957</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>913</v>
@@ -3987,7 +3852,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>972</v>
+        <v>958</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>914</v>
@@ -4067,7 +3932,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>973</v>
+        <v>959</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>915</v>
@@ -4147,7 +4012,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>974</v>
+        <v>960</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>916</v>
@@ -4275,7 +4140,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>975</v>
+        <v>961</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>917</v>
@@ -4355,7 +4220,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>976</v>
+        <v>962</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>918</v>
@@ -4435,7 +4300,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>977</v>
+        <v>963</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>919</v>
@@ -4563,7 +4428,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>920</v>
@@ -4643,7 +4508,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>979</v>
+        <v>965</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>921</v>
@@ -4843,7 +4708,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>980</v>
+        <v>966</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>922</v>
@@ -4923,7 +4788,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>981</v>
+        <v>967</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>923</v>
@@ -5003,7 +4868,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>982</v>
+        <v>968</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>924</v>
@@ -5115,7 +4980,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>983</v>
+        <v>969</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>925</v>
@@ -5195,7 +5060,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>984</v>
+        <v>970</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>926</v>
@@ -5307,7 +5172,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>985</v>
+        <v>971</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>927</v>
@@ -5387,7 +5252,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>986</v>
+        <v>972</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>928</v>
@@ -5547,7 +5412,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>987</v>
+        <v>973</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>929</v>
@@ -6579,7 +6444,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>988</v>
+        <v>974</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>930</v>
@@ -6587,7 +6452,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>989</v>
+        <v>975</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>931</v>
@@ -6611,7 +6476,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>990</v>
+        <v>976</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>932</v>
@@ -6619,7 +6484,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>991</v>
+        <v>977</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>933</v>
@@ -6643,7 +6508,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>992</v>
+        <v>978</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>934</v>
@@ -6659,7 +6524,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
-        <v>993</v>
+        <v>979</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>935</v>
@@ -6667,7 +6532,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
-        <v>994</v>
+        <v>980</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>936</v>
@@ -6675,7 +6540,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
-        <v>995</v>
+        <v>981</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>937</v>
@@ -6683,7 +6548,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
-        <v>996</v>
+        <v>982</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>938</v>
@@ -6699,7 +6564,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
-        <v>997</v>
+        <v>983</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>939</v>
@@ -6707,7 +6572,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>940</v>
@@ -6795,7 +6660,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>941</v>
@@ -6811,7 +6676,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>942</v>
@@ -6819,7 +6684,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
-        <v>1001</v>
+        <v>987</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>943</v>
@@ -6835,7 +6700,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
-        <v>1002</v>
+        <v>988</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>944</v>
@@ -6843,7 +6708,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
-        <v>1003</v>
+        <v>989</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>945</v>
@@ -6899,7 +6764,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
-        <v>1004</v>
+        <v>990</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>946</v>
@@ -6915,934 +6780,702 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
-        <v>1005</v>
+        <v>991</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>378</v>
+        <v>947</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
-        <v>1006</v>
+        <v>828</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
-        <v>1007</v>
+        <v>992</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>379</v>
+        <v>948</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
-        <v>1008</v>
+        <v>829</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
-        <v>1009</v>
+        <v>830</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
-        <v>1010</v>
+        <v>993</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>382</v>
+        <v>949</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
-        <v>1011</v>
+        <v>994</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>383</v>
+        <v>946</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
-        <v>1012</v>
+        <v>831</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
-        <v>1013</v>
+        <v>832</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>947</v>
+        <v>385</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
-        <v>1014</v>
+        <v>833</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>948</v>
+        <v>379</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
-        <v>1015</v>
+        <v>834</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>281</v>
+        <v>389</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
-        <v>1016</v>
+        <v>835</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>949</v>
+        <v>390</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" s="2" t="s">
-        <v>1017</v>
+        <v>836</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>950</v>
+        <v>391</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
-        <v>1018</v>
+        <v>837</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
-        <v>1019</v>
+        <v>838</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
-        <v>1020</v>
+        <v>839</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
-        <v>1021</v>
+        <v>840</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
-        <v>1022</v>
+        <v>841</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>951</v>
+        <v>396</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
-        <v>1023</v>
+        <v>995</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>360</v>
+        <v>950</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
-        <v>1024</v>
+        <v>842</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>952</v>
+        <v>397</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
-        <v>1025</v>
+        <v>843</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>953</v>
+        <v>398</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
-        <v>1026</v>
+        <v>844</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>954</v>
+        <v>399</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" s="2" t="s">
-        <v>1027</v>
+        <v>845</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>955</v>
+        <v>382</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
-        <v>1028</v>
+        <v>846</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>956</v>
+        <v>400</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
-        <v>1029</v>
+        <v>847</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>957</v>
+        <v>401</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
-        <v>1030</v>
+        <v>848</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>958</v>
+        <v>402</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
-        <v>1031</v>
+        <v>849</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>348</v>
+        <v>403</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
-        <v>1032</v>
+        <v>850</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>959</v>
+        <v>404</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
-        <v>1033</v>
+        <v>851</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>960</v>
+        <v>405</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
-        <v>1034</v>
+        <v>852</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>961</v>
+        <v>406</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
-        <v>828</v>
+        <v>853</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
-        <v>1035</v>
+        <v>854</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>962</v>
+        <v>381</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
-        <v>829</v>
+        <v>855</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
-        <v>830</v>
+        <v>856</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" s="2" t="s">
-        <v>1036</v>
+        <v>857</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>963</v>
+        <v>410</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" s="2" t="s">
-        <v>1037</v>
+        <v>858</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>946</v>
+        <v>411</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" s="2" t="s">
-        <v>831</v>
+        <v>859</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" s="2" t="s">
-        <v>832</v>
+        <v>860</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" s="2" t="s">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
-        <v>834</v>
+        <v>862</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
-        <v>835</v>
+        <v>996</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" s="2" t="s">
-        <v>836</v>
+        <v>863</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
-        <v>837</v>
+        <v>864</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
-        <v>838</v>
+        <v>865</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
-        <v>839</v>
+        <v>866</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" s="2" t="s">
-        <v>840</v>
+        <v>867</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
-        <v>841</v>
+        <v>868</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
-        <v>1038</v>
+        <v>869</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>964</v>
+        <v>422</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
-        <v>842</v>
+        <v>870</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
-        <v>843</v>
+        <v>871</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
-        <v>844</v>
+        <v>872</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
-        <v>845</v>
+        <v>997</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>382</v>
+        <v>951</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" s="2" t="s">
-        <v>846</v>
+        <v>873</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
-        <v>847</v>
+        <v>874</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" s="2" t="s">
-        <v>848</v>
+        <v>875</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" s="2" t="s">
-        <v>849</v>
+        <v>876</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" s="2" t="s">
-        <v>850</v>
+        <v>877</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" s="2" t="s">
-        <v>851</v>
+        <v>878</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" s="2" t="s">
-        <v>852</v>
+        <v>879</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" s="2" t="s">
-        <v>853</v>
+        <v>880</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" s="2" t="s">
-        <v>854</v>
+        <v>881</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" s="2" t="s">
-        <v>855</v>
+        <v>882</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" s="2" t="s">
-        <v>856</v>
+        <v>883</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" s="2" t="s">
-        <v>857</v>
+        <v>884</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" s="2" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" s="2" t="s">
-        <v>859</v>
+        <v>998</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>412</v>
+        <v>952</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" s="2" t="s">
-        <v>860</v>
+        <v>886</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" s="2" t="s">
-        <v>861</v>
+        <v>887</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" s="2" t="s">
-        <v>862</v>
+        <v>888</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" s="2" t="s">
-        <v>1039</v>
+        <v>889</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" s="2" t="s">
-        <v>863</v>
+        <v>890</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" s="2" t="s">
-        <v>864</v>
+        <v>891</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" s="2" t="s">
-        <v>865</v>
+        <v>892</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" s="2" t="s">
-        <v>866</v>
+        <v>893</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" s="2" t="s">
-        <v>867</v>
+        <v>894</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" s="2" t="s">
-        <v>868</v>
+        <v>895</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" s="2" t="s">
-        <v>869</v>
+        <v>896</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" s="2" t="s">
-        <v>870</v>
+        <v>897</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" s="2" t="s">
-        <v>871</v>
+        <v>898</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" s="2" t="s">
-        <v>872</v>
+        <v>899</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" s="2" t="s">
-        <v>1040</v>
+        <v>999</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" s="2" t="s">
-        <v>873</v>
+        <v>900</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" s="2" t="s">
-        <v>874</v>
+        <v>901</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" s="2" t="s">
-        <v>875</v>
+        <v>902</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" s="2" t="s">
-        <v>876</v>
+        <v>903</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" s="2" t="s">
-        <v>877</v>
+        <v>1000</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>384</v>
+        <v>414</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" s="2" t="s">
-        <v>878</v>
+        <v>904</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A505" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="B505" s="3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A506" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="B506" s="3" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A507" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="B507" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A508" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="B508" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A509" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="B509" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A510" s="2" t="s">
-        <v>884</v>
-      </c>
-      <c r="B510" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A511" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="B511" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A512" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B512" s="3" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A513" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="B513" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A514" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="B514" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A515" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="B515" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A516" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="B516" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A517" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="B517" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A518" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="B518" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A519" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="B519" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A520" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="B520" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A521" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="B521" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A522" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="B522" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A523" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="B523" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A524" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="B524" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A525" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="B525" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A526" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="B526" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A527" s="2" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B527" s="3" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A528" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="B528" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A529" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="B529" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A530" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="B530" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A531" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="B531" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A532" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B532" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A533" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="B533" s="3" t="s">
         <v>415</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B457" xr:uid="{203BAEAB-56DE-412B-85E9-7305801B1D76}"/>
+  <autoFilter ref="A1:B428" xr:uid="{203BAEAB-56DE-412B-85E9-7305801B1D76}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="10000" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
